--- a/aula10/Aula 10.xlsx
+++ b/aula10/Aula 10.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Instrutor\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Instrutor\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89D050D-A3EA-4139-9158-DEE336517EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B8D6ED-AC4C-4B21-A85D-DF2285254BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{537CB93A-C0ED-4EA6-89C5-49D1B729209E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{537CB93A-C0ED-4EA6-89C5-49D1B729209E}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendas 1" sheetId="1" r:id="rId1"/>
     <sheet name="Vendas 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Custom" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,8 +71,46 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Instrutor</author>
+  </authors>
+  <commentList>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{773AC0F4-C906-4E21-8AB0-C0FCC7D55EA0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Meses com maior venda:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>* Janeiro
+* Fevereiro
+* Março
+* Abril
+* Novembro</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="19">
   <si>
     <t>Meses</t>
   </si>
@@ -137,9 +176,9 @@
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,13 +219,43 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF6699"/>
+      <name val="Aubrey"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -226,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,34 +303,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF6699"/>
+        <name val="Aubrey"/>
+        <scheme val="none"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.89999084444715716"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF6699"/>
+        <name val="Aubrey"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -271,17 +416,173 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="7"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF7030A0"/>
+        <name val="Book Antiqua"/>
+        <family val="1"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <name val="Book Antiqua"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <name val="Book Antiqua"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <name val="Book Antiqua"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <name val="Book Antiqua"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <name val="Book Antiqua"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <name val="Book Antiqua"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <name val="Book Antiqua"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -378,7 +679,34 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="7"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -389,6 +717,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -401,14 +735,13 @@
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6699"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -420,24 +753,149 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="Kiki's Delivery Service Jiji cursor – Custom Cursor">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9668414E-F736-8E54-EC67-67D01674537D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="56221" r="14132"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7686675" y="628650"/>
+          <a:ext cx="1838325" cy="3105150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>54309</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3" descr="Dog Paw Print PNG Image | Dog paws, Paw, Dog paw print">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D26757-933F-1F3D-0197-B4451E0E2A48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2371725" y="2314575"/>
+          <a:ext cx="1063959" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B2E7D5D7-5F84-413D-8CB7-E44B7FED2F0E}" name="Tabela1" displayName="Tabela1" ref="A1:B13" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B2E7D5D7-5F84-413D-8CB7-E44B7FED2F0E}" name="Tabela1" displayName="Tabela1" ref="A1:B13" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:B13" xr:uid="{B2E7D5D7-5F84-413D-8CB7-E44B7FED2F0E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CD42D920-7605-4C87-B2C4-21D68691A236}" name="Meses" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{B0FAE577-CCC6-4894-B0C2-58A4EF31DD12}" name="Vendas de 2019" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{CD42D920-7605-4C87-B2C4-21D68691A236}" name="Meses" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{B0FAE577-CCC6-4894-B0C2-58A4EF31DD12}" name="Vendas de 2019" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1C75B65-BAF6-4846-92F3-E7A6A7DFE47A}" name="Tabela13" displayName="Tabela13" ref="A1:C13" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1C75B65-BAF6-4846-92F3-E7A6A7DFE47A}" name="Tabela13" displayName="Tabela13" ref="A1:C13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:C13" xr:uid="{A1C75B65-BAF6-4846-92F3-E7A6A7DFE47A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{57E9A7BA-8289-44CB-B494-21283CD5632F}" name="Meses" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{B0D84B5C-DD2C-49A6-9D12-B244C718C6FD}" name="Valor Total" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4112E9C4-B518-4422-9CFE-D9C95C48871B}" name="2021" dataDxfId="5" dataCellStyle="Moeda">
+    <tableColumn id="1" xr3:uid="{57E9A7BA-8289-44CB-B494-21283CD5632F}" name="Meses" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{B0D84B5C-DD2C-49A6-9D12-B244C718C6FD}" name="Valor Total" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{4112E9C4-B518-4422-9CFE-D9C95C48871B}" name="2021" dataDxfId="15" dataCellStyle="Moeda">
       <calculatedColumnFormula>'Vendas 1'!B2+'Vendas 2'!B2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -446,15 +904,44 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6E72FCD4-346C-426D-BA65-DC672465F9EC}" name="Tabela3" displayName="Tabela3" ref="E1:G13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6E72FCD4-346C-426D-BA65-DC672465F9EC}" name="Tabela3" displayName="Tabela3" ref="E1:G13" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="E1:G13" xr:uid="{6E72FCD4-346C-426D-BA65-DC672465F9EC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:G13">
     <sortCondition ref="G1:G13"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{582857ED-45E7-413C-9E6F-1E550E8B7F40}" name="Classificado em Ordem Crescente" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0F9DF924-4F40-4ACF-BF47-2B1D42DD53CF}" name="--" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{840700B6-ECC1-4838-9D08-1FE229DB6C68}" name="-" dataDxfId="2" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{582857ED-45E7-413C-9E6F-1E550E8B7F40}" name="Classificado em Ordem Crescente" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{0F9DF924-4F40-4ACF-BF47-2B1D42DD53CF}" name="--" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{840700B6-ECC1-4838-9D08-1FE229DB6C68}" name="-" dataDxfId="10" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{44415CE0-739D-4E16-B753-CECE2E9DF32E}" name="Tabela135" displayName="Tabela135" ref="B2:D14" totalsRowShown="0" headerRowDxfId="1" dataDxfId="6">
+  <autoFilter ref="B2:D14" xr:uid="{A1C75B65-BAF6-4846-92F3-E7A6A7DFE47A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DF00002C-5372-4764-B343-D34012B7F150}" name="Meses" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{A87CE703-ED90-48E8-92A5-8FC72901D26C}" name="Valor Total" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{85003579-9D6A-4EC2-833B-B10C0A70D943}" name="2021" dataDxfId="7" dataCellStyle="Moeda">
+      <calculatedColumnFormula>'Vendas 1'!B2+Custom!C3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7C2CB0F9-14FC-4417-A584-3D5877ECC43F}" name="Tabela36" displayName="Tabela36" ref="F2:H14" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2">
+  <autoFilter ref="F2:H14" xr:uid="{6E72FCD4-346C-426D-BA65-DC672465F9EC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F3:H14">
+    <sortCondition ref="H2:H14"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DA0651FC-461D-43F6-8548-D5E1F21C638C}" name="Classificado em Ordem Crescente" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{140078F2-DE59-4649-8316-A4C9EB86D716}" name="--" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F8DF55AD-9DB8-495D-9791-EFA55BBF7886}" name="-" dataDxfId="3" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -887,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B4BEFE-4FC3-49B0-9302-786D5AD64D71}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,4 +1673,310 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87387EC-6533-4AF2-AC9D-FE16302BFDED}">
+  <dimension ref="B2:H14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>3174</v>
+      </c>
+      <c r="D3" s="12">
+        <f>'Vendas 1'!B2+Custom!C3</f>
+        <v>3967.5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="14">
+        <v>3174</v>
+      </c>
+      <c r="H3" s="15">
+        <v>3967.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17">
+        <v>3808.8</v>
+      </c>
+      <c r="D4" s="18">
+        <f>'Vendas 1'!B3+Custom!C4</f>
+        <v>4761</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="20">
+        <v>3808.8</v>
+      </c>
+      <c r="H4" s="21">
+        <v>4761</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11">
+        <v>4240</v>
+      </c>
+      <c r="D5" s="12">
+        <f>'Vendas 1'!B4+Custom!C5</f>
+        <v>5300</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="14">
+        <v>4240</v>
+      </c>
+      <c r="H5" s="15">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17">
+        <v>4664</v>
+      </c>
+      <c r="D6" s="18">
+        <f>'Vendas 1'!B5+Custom!C6</f>
+        <v>5830</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="20">
+        <v>4664</v>
+      </c>
+      <c r="H6" s="21">
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11">
+        <v>5290</v>
+      </c>
+      <c r="D7" s="12">
+        <f>'Vendas 1'!B6+Custom!C7</f>
+        <v>6612.5</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="14">
+        <v>4664</v>
+      </c>
+      <c r="H7" s="15">
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="17">
+        <v>5916</v>
+      </c>
+      <c r="D8" s="18">
+        <f>'Vendas 1'!B7+Custom!C8</f>
+        <v>7395</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="20">
+        <v>4996.8</v>
+      </c>
+      <c r="H8" s="21">
+        <v>6246</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11">
+        <v>6758.4</v>
+      </c>
+      <c r="D9" s="12">
+        <f>'Vendas 1'!B8+Custom!C9</f>
+        <v>8448</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="14">
+        <v>5290</v>
+      </c>
+      <c r="H9" s="15">
+        <v>6612.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="17">
+        <v>6336</v>
+      </c>
+      <c r="D10" s="18">
+        <f>'Vendas 1'!B9+Custom!C10</f>
+        <v>7920</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="20">
+        <v>5665.2</v>
+      </c>
+      <c r="H10" s="21">
+        <v>7081.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11">
+        <v>5665.2</v>
+      </c>
+      <c r="D11" s="12">
+        <f>'Vendas 1'!B10+Custom!C11</f>
+        <v>7081.5</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="14">
+        <v>5916</v>
+      </c>
+      <c r="H11" s="15">
+        <v>7395</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="17">
+        <v>4996.8</v>
+      </c>
+      <c r="D12" s="18">
+        <f>'Vendas 1'!B11+Custom!C12</f>
+        <v>6246</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="20">
+        <v>5916</v>
+      </c>
+      <c r="H12" s="21">
+        <v>7395</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11">
+        <v>4664</v>
+      </c>
+      <c r="D13" s="12">
+        <f>'Vendas 1'!B12+Custom!C13</f>
+        <v>5830</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="14">
+        <v>6336</v>
+      </c>
+      <c r="H13" s="15">
+        <v>7920</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="17">
+        <v>5916</v>
+      </c>
+      <c r="D14" s="18">
+        <f>'Vendas 1'!B13+Custom!C14</f>
+        <v>7395</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="20">
+        <v>6758.4</v>
+      </c>
+      <c r="H14" s="21">
+        <v>8448</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <picture r:id="rId4"/>
+  <tableParts count="2">
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
 </file>